--- a/dados/05_governanca_indicadores.xlsx
+++ b/dados/05_governanca_indicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b755341190342fa/projetos/finops-automatic/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_CD217A2090FAF6F4E6AF7D55FDBC3730D0193ECD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F19143E-A80C-456F-A3E7-0EC48E86607C}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_CD217A2090FAF6F4E6AF7D55FDBC3730D0193ECD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A995E2BC-830F-45F5-9C76-C0F85EB28A42}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,16 +465,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,7 +1544,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1572,7 +1572,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="7">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1583,7 +1583,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="7">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1594,7 +1594,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="7">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1605,7 +1605,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="9">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
